--- a/final.xlsx
+++ b/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Desktop\cigars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Desktop\cigars\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66377E0E-15AA-48BC-AD63-654385177A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62405046-3B89-460B-917E-ECC0EC662F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="48">
   <si>
     <t>Background</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Colorado Claro</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +647,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K25" si="0">COUNTIF(B:B,J5)/200</f>
+        <f t="shared" ref="K5:K13" si="0">COUNTIF(B:B,J5)/200</f>
         <v>0.115</v>
       </c>
       <c r="N5" s="3" t="s">

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Desktop\cigars\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62405046-3B89-460B-917E-ECC0EC662F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7735DB2-A84E-4BA0-BEBB-56968CB64E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,19 +3529,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,19 +3549,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,19 +3969,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,19 +4389,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
